--- a/import_template_product_variant/tests/sample_template_without_variants.xlsx
+++ b/import_template_product_variant/tests/sample_template_without_variants.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t xml:space="preserve">product_tmpl_code</t>
   </si>
@@ -37,10 +37,88 @@
     <t xml:space="preserve">barcode</t>
   </si>
   <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categ_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*sale_ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*purchase_ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*list_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*invoice_policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*description_sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*description_purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom_po_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*TMPL*product_brand_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRODTMPL1TEST</t>
   </si>
   <si>
     <t xml:space="preserve">PROD1_UNIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trey.es/web/image/website/1/logo?unique=20ee16c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description for customers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description for suppliers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand 1</t>
   </si>
 </sst>
 </file>
@@ -147,10 +225,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -165,7 +243,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="23.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="69.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="18" style="0" width="8.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
@@ -186,16 +265,103 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>4050119164021</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
